--- a/docs/base/StructureDefinition-lt-patient.xlsx
+++ b/docs/base/StructureDefinition-lt-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient|5.0.0</t>
+    <t>http://hl7.eu/fhir/base-r5/StructureDefinition/patient-eu|0.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,33 +452,233 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace</t>
+  </si>
+  <si>
+    <t>birthPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Place of Birth for patient</t>
+  </si>
+  <si>
+    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-birthPlace</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {http://hl7.eu/fhir/base-r5/StructureDefinition/Address-eu|0.1.0}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Patient.extension:sex-for-clinical-use</t>
+  </si>
+  <si>
+    <t>sex-for-clinical-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Sex for clinical use</t>
+  </si>
+  <si>
+    <t>A parameter that provides guidance on how a recipient should apply settings or reference ranges that are derived from observable information such as an organ inventory, recent hormone lab tests, genetic testing, menstrual status, obstetric history, etc..</t>
+  </si>
+  <si>
+    <t>Patient.extension:gender-identity</t>
+  </si>
+  <si>
+    <t>gender-identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-genderIdentity|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>An individual's personal sense of being a man, woman, boy, girl, nonbinary, or something else.</t>
+  </si>
+  <si>
+    <t>This represents an individual’s identity, ascertained by asking them what that identity is.</t>
+  </si>
+  <si>
+    <t>Patient.extension:pronouns</t>
+  </si>
+  <si>
+    <t>pronouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-pronouns|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
+  </si>
+  <si>
+    <t>Patient.extension:patient-citizenship</t>
+  </si>
+  <si>
+    <t>patient-citizenship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>The patient's legal status as citizen of a country.</t>
+  </si>
+  <si>
+    <t>Patient.extension:patient-nationality</t>
+  </si>
+  <si>
+    <t>patient-nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-nationality|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>The nationality of the patient.</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthTime</t>
+  </si>
+  <si>
+    <t>birthTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-birthTime|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Birth time</t>
+  </si>
+  <si>
+    <t>The time of day that the Patient/Person/RelatedPerson/Practitioner was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
+  </si>
+  <si>
+    <t>The patient prefix on the extension was retained to ensure backward compatibility with existing data (the content itself is provided to assist in sharing data across patient resources effectively)</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -486,6 +686,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -499,7 +702,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
+    <t>Patient identifiers</t>
   </si>
   <si>
     <t>An identifier for this patient.</t>
@@ -526,39 +729,13 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.identifier.extension:data-absent-reason</t>
@@ -657,6 +834,9 @@
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>https://hl7.lt/fhir/base/ValueSet/patient-identifier|1.0.0</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -797,7 +977,8 @@
     <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns. Animal names may be communicated as given names, and optionally may include a family name.</t>
   </si>
   <si>
-    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
+The Alphabetic representation of the name SHALL be always provided</t>
   </si>
   <si>
     <t>name</t>
@@ -851,10 +1032,10 @@
     <t>Patient.name.text</t>
   </si>
   <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+    <t>Text representation of the full name.</t>
+  </si>
+  <si>
+    <t>Text representation of the full name. Due to the cultural variance around the world a consuming system may not know how to present the name correctly; moreover not all the parts of the name go in given or family. Creators are therefore strongly encouraged to provide through this element a presented version of the name. Future versions of this guide may require this element.</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
@@ -879,13 +1060,16 @@
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+    <t>Family name.</t>
+  </si>
+  <si>
+    <t>Family name. When more the family is composed by more than one names, this element documents the full composed family name with the proper * name.familyrder. The parts are recorded in the fhater and mother family names extensions.</t>
   </si>
   <si>
     <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>Valero Iglesias</t>
   </si>
   <si>
     <t>HumanName.family</t>
@@ -904,7 +1088,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
+    <t>Given names. Includes middle names</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -986,7 +1170,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the individual</t>
+    <t>A contact detail for the patient</t>
   </si>
   <si>
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
@@ -1010,10 +1194,128 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
+    <t>Patient.telecom.id</t>
+  </si>
+  <si>
+    <t>Patient.telecom.extension</t>
+  </si>
+  <si>
+    <t>Patient.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>Patient.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>Patient.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>Patient.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
+Ranks need not be unique.  E.g. it's possible to have multiple contacts with rank=1.  If the ranks have different systems or uses, this would be interpreted to mean "X is my most preferred phone number, Y is my most preferred email address" or "X is my preferred home email and Y is my preferred work email".  If the system and use for equally-ranked contacts are the same, then the level of preference is equivalent for both repetitions. 
+Ranks need not be sequential and not all repetitions must have a rank.  For example, it's possible to have 4 contacts with ranks of 2, 5 and two with no rank specified.  That would be interpreted to mean the first is preferred over the second and no preference stated for the remaining contacts.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Patient.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
+    <t>Administrative Gender</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1050,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
+    <t>The date of birth for the patient</t>
   </si>
   <si>
     <t>The date of birth for the individual.</t>
@@ -1105,10 +1407,6 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
     <t>An address for the individual</t>
   </si>
   <si>
@@ -1136,7 +1434,7 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t>Marital (civil) status of a patient</t>
+    <t>Marital status</t>
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.</t>
@@ -1268,7 +1566,7 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of relationship</t>
+    <t>Contact relationship</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.</t>
@@ -1292,7 +1590,7 @@
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t>A name associated with the contact person</t>
+    <t>Contact name</t>
   </si>
   <si>
     <t>A name associated with the contact person.</t>
@@ -1311,7 +1609,7 @@
     <t>Patient.contact.telecom</t>
   </si>
   <si>
-    <t>A contact detail for the person</t>
+    <t>Contact details for the person</t>
   </si>
   <si>
     <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
@@ -1326,7 +1624,7 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t>Address for the contact person</t>
+    <t>Contact person address</t>
   </si>
   <si>
     <t>Address for the contact person.</t>
@@ -1341,6 +1639,9 @@
     <t>Patient.contact.gender</t>
   </si>
   <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
@@ -1416,7 +1717,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health</t>
+    <t>Communication language</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-AU" for Australian English.</t>
@@ -1468,11 +1769,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner-role|0.2.0)
 </t>
   </si>
   <si>
-    <t>Patient's nominated primary care provider</t>
+    <t>Patient's nominated primary care provider.</t>
   </si>
   <si>
     <t>Patient's nominated care provider.</t>
@@ -1492,6 +1793,10 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0)
+</t>
+  </si>
+  <si>
     <t>Organization that is the custodian of the patient record</t>
   </si>
   <si>
@@ -1539,7 +1844,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|5.0.0|RelatedPerson|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-related-person|0.2.0)
 </t>
   </si>
   <si>
@@ -1889,7 +2194,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1900,7 +2205,7 @@
   <cols>
     <col min="1" max="1" width="37.55859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.4765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
@@ -1908,7 +2213,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2914,7 +3219,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2933,17 +3238,15 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>83</v>
@@ -2980,16 +3283,14 @@
         <v>83</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>145</v>
@@ -3010,7 +3311,7 @@
         <v>83</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>83</v>
@@ -3030,43 +3331,41 @@
         <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>83</v>
       </c>
@@ -3114,7 +3413,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3132,7 +3431,7 @@
         <v>83</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>83</v>
@@ -3147,12 +3446,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3160,22 +3459,22 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>154</v>
@@ -3184,9 +3483,7 @@
         <v>155</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>83</v>
       </c>
@@ -3234,34 +3531,34 @@
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
@@ -3269,10 +3566,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3283,7 +3580,7 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>83</v>
@@ -3295,13 +3592,13 @@
         <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3340,37 +3637,37 @@
         <v>83</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>83</v>
@@ -3387,21 +3684,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>83</v>
@@ -3413,16 +3710,16 @@
         <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3430,7 +3727,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>83</v>
@@ -3460,73 +3757,71 @@
         <v>83</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AC13" t="s" s="2">
+      <c r="B14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AD13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>83</v>
@@ -3535,13 +3830,13 @@
         <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3592,25 +3887,25 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>83</v>
@@ -3627,12 +3922,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>83</v>
       </c>
@@ -3641,32 +3938,28 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>83</v>
       </c>
@@ -3690,13 +3983,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -3714,25 +4007,25 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>83</v>
@@ -3741,7 +4034,7 @@
         <v>83</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3749,12 +4042,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
       </c>
@@ -3763,7 +4058,7 @@
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>83</v>
@@ -3772,23 +4067,21 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>83</v>
       </c>
@@ -3812,13 +4105,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3836,25 +4129,25 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>83</v>
@@ -3863,7 +4156,7 @@
         <v>83</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3871,12 +4164,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3885,7 +4180,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>83</v>
@@ -3894,23 +4189,19 @@
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3922,7 +4213,7 @@
         <v>83</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>83</v>
@@ -3958,25 +4249,25 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>83</v>
@@ -3985,7 +4276,7 @@
         <v>83</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -3993,12 +4284,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>83</v>
       </c>
@@ -4007,7 +4300,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -4016,20 +4309,18 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
@@ -4042,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>83</v>
@@ -4078,25 +4369,25 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>83</v>
@@ -4105,7 +4396,7 @@
         <v>83</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4113,12 +4404,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
       </c>
@@ -4127,7 +4420,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>83</v>
@@ -4136,16 +4429,16 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4196,25 +4489,25 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>83</v>
@@ -4223,7 +4516,7 @@
         <v>83</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4231,12 +4524,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4254,19 +4549,19 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4316,25 +4611,25 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>83</v>
@@ -4343,32 +4638,32 @@
         <v>83</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>94</v>
@@ -4377,26 +4672,24 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4440,31 +4733,31 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4475,10 +4768,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4486,7 +4779,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4501,19 +4794,17 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4562,7 +4853,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4577,19 +4868,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4597,10 +4888,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4626,10 +4917,10 @@
         <v>95</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4680,7 +4971,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4689,7 +4980,7 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>83</v>
@@ -4698,7 +4989,7 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>83</v>
@@ -4715,14 +5006,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4741,16 +5032,16 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4788,19 +5079,19 @@
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4818,7 +5109,7 @@
         <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>83</v>
@@ -4835,12 +5126,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4855,26 +5148,22 @@
         <v>94</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4898,13 +5187,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -4922,25 +5211,25 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>83</v>
@@ -4949,18 +5238,18 @@
         <v>83</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4974,28 +5263,28 @@
         <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5020,13 +5309,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5044,7 +5333,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5062,7 +5351,7 @@
         <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>83</v>
@@ -5071,22 +5360,22 @@
         <v>83</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5096,7 +5385,7 @@
         <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>83</v>
@@ -5105,18 +5394,20 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5140,13 +5431,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5164,7 +5455,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5182,7 +5473,7 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>83</v>
@@ -5191,7 +5482,7 @@
         <v>83</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5199,21 +5490,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>94</v>
@@ -5225,18 +5516,20 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5248,7 +5541,7 @@
         <v>83</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>83</v>
@@ -5260,13 +5553,11 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5284,13 +5575,13 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
@@ -5302,7 +5593,7 @@
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>83</v>
@@ -5311,18 +5602,18 @@
         <v>83</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5333,10 +5624,10 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
@@ -5345,15 +5636,17 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5366,7 +5659,7 @@
         <v>83</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>83</v>
@@ -5402,16 +5695,16 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>105</v>
@@ -5420,7 +5713,7 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>83</v>
@@ -5429,18 +5722,18 @@
         <v>83</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5451,10 +5744,10 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
@@ -5463,13 +5756,13 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5520,13 +5813,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5538,7 +5831,7 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>83</v>
@@ -5547,18 +5840,18 @@
         <v>83</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5572,7 +5865,7 @@
         <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
@@ -5581,18 +5874,18 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5640,7 +5933,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5658,7 +5951,7 @@
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>83</v>
@@ -5667,18 +5960,18 @@
         <v>83</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5689,36 +5982,38 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="R32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5762,13 +6057,13 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
@@ -5777,19 +6072,19 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>318</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
@@ -5797,10 +6092,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5811,7 +6106,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>94</v>
@@ -5823,19 +6118,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5860,13 +6155,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5884,13 +6179,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -5902,27 +6197,27 @@
         <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5936,29 +6231,25 @@
         <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>331</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6006,7 +6297,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6015,72 +6306,70 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>336</v>
+        <v>158</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6116,57 +6405,57 @@
         <v>83</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>162</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6177,31 +6466,31 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6226,13 +6515,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6250,13 +6539,13 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
@@ -6268,27 +6557,27 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6302,26 +6591,28 @@
         <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6346,13 +6637,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6370,7 +6661,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6388,31 +6679,31 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6422,29 +6713,27 @@
         <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6456,7 +6745,7 @@
         <v>83</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>83</v>
@@ -6492,7 +6781,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6510,31 +6799,31 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6544,29 +6833,27 @@
         <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6614,7 +6901,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6632,16 +6919,16 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
@@ -6649,10 +6936,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6672,23 +6959,19 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>386</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6736,7 +7019,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6748,22 +7031,22 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -6771,10 +7054,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6785,7 +7068,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -6794,16 +7077,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6854,25 +7137,25 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>165</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>83</v>
@@ -6881,52 +7164,52 @@
         <v>83</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>142</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -6974,25 +7257,25 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>167</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>83</v>
@@ -7001,22 +7284,22 @@
         <v>83</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7026,28 +7309,28 @@
         <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>144</v>
+        <v>371</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>150</v>
+        <v>372</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7096,7 +7379,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7108,22 +7391,22 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7131,10 +7414,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7145,7 +7428,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7157,18 +7440,16 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>402</v>
+        <v>155</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7192,13 +7473,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7216,34 +7497,34 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>406</v>
+        <v>158</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7251,21 +7532,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7277,18 +7558,18 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>409</v>
+        <v>228</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7324,57 +7605,57 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>162</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7385,32 +7666,28 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7434,13 +7711,13 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>83</v>
@@ -7458,16 +7735,16 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7476,27 +7753,27 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7510,26 +7787,28 @@
         <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7578,7 +7857,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7587,7 +7866,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7596,27 +7875,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7630,26 +7909,28 @@
         <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7677,10 +7958,10 @@
         <v>117</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>324</v>
+        <v>401</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7698,7 +7979,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7716,16 +7997,16 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -7733,10 +8014,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7756,21 +8037,21 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>227</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7818,7 +8099,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7827,7 +8108,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7836,16 +8117,16 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>432</v>
+        <v>158</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>433</v>
+        <v>158</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -7853,10 +8134,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7876,16 +8157,16 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7936,7 +8217,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7954,27 +8235,27 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7985,31 +8266,31 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>386</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8034,13 +8315,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -8058,13 +8339,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -8076,27 +8357,27 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8110,25 +8391,29 @@
         <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>163</v>
+        <v>428</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8176,7 +8461,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8185,70 +8470,72 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>167</v>
+        <v>432</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>83</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>141</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>142</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>169</v>
+        <v>440</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8296,34 +8583,34 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>173</v>
+        <v>437</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>83</v>
+        <v>444</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8331,14 +8618,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8351,25 +8638,25 @@
         <v>83</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>144</v>
+        <v>448</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8418,7 +8705,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8430,22 +8717,22 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8453,10 +8740,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8464,7 +8751,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>93</v>
@@ -8479,19 +8766,17 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8516,13 +8801,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>118</v>
+        <v>458</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>119</v>
+        <v>459</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8540,10 +8825,10 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>93</v>
@@ -8558,16 +8843,16 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -8575,10 +8860,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8601,19 +8886,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>235</v>
+        <v>464</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8662,7 +8947,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8680,16 +8965,16 @@
         <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>463</v>
+        <v>158</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -8697,14 +8982,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8723,18 +9008,20 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8782,7 +9069,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8800,16 +9087,16 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -8817,10 +9104,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8831,7 +9118,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -8840,22 +9127,22 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -8904,31 +9191,31 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>486</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>478</v>
+        <v>158</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -8939,10 +9226,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8953,32 +9240,28 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>386</v>
+        <v>267</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>480</v>
+        <v>154</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9026,31 +9309,31 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>479</v>
+        <v>156</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>484</v>
+        <v>158</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9061,21 +9344,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9087,15 +9370,17 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9144,25 +9429,25 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>83</v>
@@ -9179,14 +9464,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>140</v>
+        <v>491</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9199,24 +9484,26 @@
         <v>83</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9264,7 +9551,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>173</v>
+        <v>494</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9282,7 +9569,7 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>83</v>
@@ -9299,14 +9586,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9319,25 +9606,23 @@
         <v>83</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
+        <v>496</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9362,13 +9647,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>83</v>
+        <v>499</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9386,7 +9671,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9398,22 +9683,22 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>138</v>
+        <v>501</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9421,10 +9706,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9432,7 +9717,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>93</v>
@@ -9444,21 +9729,21 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9506,16 +9791,16 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>83</v>
+        <v>507</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9524,16 +9809,16 @@
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AO63" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -9541,10 +9826,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9552,10 +9837,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>83</v>
@@ -9564,19 +9849,23 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9600,13 +9889,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>496</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -9624,16 +9913,16 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>83</v>
+        <v>507</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -9642,23 +9931,2189 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>498</v>
+        <v>373</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>83</v>
+        <v>513</v>
       </c>
       <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP64">
+  <autoFilter ref="A1:AP82">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9668,7 +12123,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
